--- a/config_6.15/activity_ty_task_config.xlsx
+++ b/config_6.15/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -77,7 +77,7 @@
     </r>
   </si>
   <si>
-    <t>act_yxbd</t>
+    <t>act_yxrw</t>
   </si>
   <si>
     <t>hlfl_bg_1</t>
@@ -86,7 +86,7 @@
     <t>奖励金币</t>
   </si>
   <si>
-    <t>act_yxbd_cjj</t>
+    <t>act_yxrw_cjj</t>
   </si>
   <si>
     <t>奖励金币_cjj</t>
@@ -390,10 +390,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -446,6 +446,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -460,39 +543,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,14 +561,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,22 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -552,36 +582,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -640,163 +640,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,17 +825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -851,21 +840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -877,24 +851,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,16 +883,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,16 +940,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,115 +958,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1456,8 +1456,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1646,8 +1646,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2628,10 +2628,7 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:15">
       <c r="A26" s="12"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="2"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="12"/>
@@ -2641,10 +2638,7 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="1:15">
       <c r="A27" s="12"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="2"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
       <c r="H27" s="12"/>
@@ -2654,10 +2648,7 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:15">
       <c r="A28" s="12"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="2"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="12"/>
@@ -2669,10 +2660,7 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
       <c r="A29" s="12"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="2"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="12"/>
@@ -2680,10 +2668,7 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
       <c r="A30" s="12"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="2"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
       <c r="H30" s="12"/>
@@ -2691,10 +2676,7 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="1:9">
       <c r="A31" s="12"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="2"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
       <c r="H31" s="12"/>
@@ -2702,10 +2684,7 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:9">
       <c r="A32" s="12"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="2"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
       <c r="H32" s="12"/>
@@ -2713,10 +2692,7 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="1:9">
       <c r="A33" s="12"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="2"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
       <c r="H33" s="12"/>
@@ -2724,10 +2700,7 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
       <c r="A34" s="12"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
       <c r="H34" s="12"/>
@@ -2735,10 +2708,7 @@
     </row>
     <row r="35" s="2" customFormat="1" spans="1:15">
       <c r="A35" s="12"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="2"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
       <c r="H35" s="12"/>
@@ -2748,10 +2718,7 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:15">
       <c r="A36" s="12"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="2"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
       <c r="H36" s="12"/>
@@ -2761,10 +2728,7 @@
     </row>
     <row r="37" s="2" customFormat="1" spans="1:13">
       <c r="A37" s="12"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="2"/>
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
       <c r="H37" s="12"/>
@@ -2773,10 +2737,7 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:9">
       <c r="A38" s="12"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="2"/>
       <c r="F38" s="13"/>
       <c r="G38" s="14"/>
       <c r="H38" s="12"/>
@@ -2784,10 +2745,7 @@
     </row>
     <row r="39" s="2" customFormat="1" spans="1:9">
       <c r="A39" s="12"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="2"/>
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
       <c r="H39" s="12"/>
@@ -2795,10 +2753,7 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:9">
       <c r="A40" s="12"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="2"/>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
       <c r="H40" s="12"/>
@@ -2806,10 +2761,7 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="1:9">
       <c r="A41" s="12"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="2"/>
       <c r="F41" s="13"/>
       <c r="G41" s="14"/>
       <c r="H41" s="12"/>
@@ -3030,12 +2982,6 @@
     <row r="95" spans="1:13">
       <c r="A95" s="12"/>
       <c r="B95" s="19"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
       <c r="L95" s="3" t="s">
         <v>89</v>
       </c>
@@ -3046,12 +2992,6 @@
     <row r="96" spans="1:13">
       <c r="A96" s="12"/>
       <c r="B96" s="19"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
       <c r="L96" s="3" t="s">
         <v>91</v>
       </c>
@@ -3062,12 +3002,6 @@
     <row r="97" spans="1:13">
       <c r="A97" s="12"/>
       <c r="B97" s="19"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
       <c r="L97" s="3" t="s">
         <v>93</v>
       </c>
@@ -3078,12 +3012,6 @@
     <row r="98" spans="1:13">
       <c r="A98" s="12"/>
       <c r="B98" s="19"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
       <c r="L98" s="3" t="s">
         <v>95</v>
       </c>
@@ -3094,12 +3022,6 @@
     <row r="99" spans="1:13">
       <c r="A99" s="12"/>
       <c r="B99" s="19"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
       <c r="L99" s="3" t="s">
         <v>97</v>
       </c>
@@ -3110,12 +3032,6 @@
     <row r="100" spans="1:13">
       <c r="A100" s="12"/>
       <c r="B100" s="19"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
       <c r="L100" s="3" t="s">
         <v>99</v>
       </c>
@@ -3126,12 +3042,6 @@
     <row r="101" spans="1:13">
       <c r="A101" s="12"/>
       <c r="B101" s="19"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
       <c r="L101" s="3" t="s">
         <v>101</v>
       </c>

--- a/config_6.15/activity_ty_task_config.xlsx
+++ b/config_6.15/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>index|索引</t>
   </si>
@@ -256,7 +256,7 @@
     <t>"jing_bi",</t>
   </si>
   <si>
-    <t>5000</t>
+    <t>5000,</t>
   </si>
   <si>
     <t>"game_MiniGame",</t>
@@ -268,13 +268,16 @@
     <t>在苹果大战中，累计纯赢5万</t>
   </si>
   <si>
+    <t>10000,</t>
+  </si>
+  <si>
     <t>200000</t>
   </si>
   <si>
     <t>在苹果大战中，累计纯赢20万</t>
   </si>
   <si>
-    <t>20000</t>
+    <t>20000,</t>
   </si>
   <si>
     <t>5</t>
@@ -313,7 +316,7 @@
     <t>在水浒消消乐中召唤出4个英雄</t>
   </si>
   <si>
-    <t>30000</t>
+    <t>30000,</t>
   </si>
   <si>
     <t>在财神消消乐中累计出现2次天女散花</t>
@@ -390,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -446,84 +449,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,9 +470,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,9 +508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,6 +523,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -582,6 +546,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -640,37 +643,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,103 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,18 +847,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,9 +908,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,38 +920,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,10 +931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,133 +943,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1456,7 +1459,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1850,10 +1853,10 @@
   <sheetPr/>
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1992,7 +1995,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>61</v>
@@ -2015,10 +2018,10 @@
         <v>1000666</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2027,7 +2030,7 @@
         <v>59</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>61</v>
@@ -2048,10 +2051,10 @@
         <v>1000667</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -2060,10 +2063,10 @@
         <v>59</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="9"/>
@@ -2081,10 +2084,10 @@
         <v>1000668</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2093,10 +2096,10 @@
         <v>59</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="9"/>
@@ -2114,10 +2117,10 @@
         <v>1000669</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2126,10 +2129,10 @@
         <v>59</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="9"/>
@@ -2148,10 +2151,10 @@
         <v>1000670</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2160,7 +2163,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>61</v>
@@ -2175,10 +2178,10 @@
         <v>1000671</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2187,7 +2190,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>61</v>
@@ -2202,10 +2205,10 @@
         <v>1000672</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2214,7 +2217,7 @@
         <v>59</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>61</v>
@@ -2232,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2241,7 +2244,7 @@
         <v>59</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>61</v>
@@ -2256,10 +2259,10 @@
         <v>1000673</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2268,7 +2271,7 @@
         <v>59</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>61</v>
@@ -2283,10 +2286,10 @@
         <v>1000673</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2295,7 +2298,7 @@
         <v>59</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>61</v>
@@ -2349,7 +2352,7 @@
         <v>59</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>61</v>
@@ -2364,10 +2367,10 @@
         <v>1000675</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2376,7 +2379,7 @@
         <v>59</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>61</v>
@@ -2391,10 +2394,10 @@
         <v>1000675</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2403,7 +2406,7 @@
         <v>59</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>61</v>
@@ -2418,10 +2421,10 @@
         <v>1000676</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2430,7 +2433,7 @@
         <v>59</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>61</v>
@@ -2445,10 +2448,10 @@
         <v>1000677</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -2457,7 +2460,7 @@
         <v>59</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>61</v>
@@ -2472,10 +2475,10 @@
         <v>1000677</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2484,7 +2487,7 @@
         <v>59</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>61</v>
@@ -2502,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2511,7 +2514,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>61</v>
@@ -2529,7 +2532,7 @@
         <v>300000</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2538,7 +2541,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>61</v>
@@ -2556,7 +2559,7 @@
         <v>600000</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2565,7 +2568,7 @@
         <v>59</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>61</v>
@@ -2583,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2592,7 +2595,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>61</v>
@@ -2610,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2619,7 +2622,7 @@
         <v>59</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>61</v>
@@ -2983,70 +2986,70 @@
       <c r="A95" s="12"/>
       <c r="B95" s="19"/>
       <c r="L95" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="12"/>
       <c r="B96" s="19"/>
       <c r="L96" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="12"/>
       <c r="B97" s="19"/>
       <c r="L97" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="12"/>
       <c r="B98" s="19"/>
       <c r="L98" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="12"/>
       <c r="B99" s="19"/>
       <c r="L99" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="12"/>
       <c r="B100" s="19"/>
       <c r="L100" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="12"/>
       <c r="B101" s="19"/>
       <c r="L101" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:2">

--- a/config_6.15/activity_ty_task_config.xlsx
+++ b/config_6.15/activity_ty_task_config.xlsx
@@ -393,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -450,19 +450,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -485,6 +486,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -493,8 +501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,22 +558,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -573,7 +566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,6 +578,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -643,19 +643,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,133 +727,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,9 +845,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,6 +893,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,32 +913,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,133 +943,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1856,7 +1856,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1989,7 +1989,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>59</v>
@@ -2024,7 +2024,7 @@
         <v>66</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>59</v>
@@ -2238,7 +2238,7 @@
         <v>79</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>59</v>
@@ -2292,7 +2292,7 @@
         <v>82</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>59</v>
@@ -2346,7 +2346,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>59</v>
@@ -2400,7 +2400,7 @@
         <v>75</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>59</v>
@@ -2481,7 +2481,7 @@
         <v>79</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>59</v>
@@ -2562,7 +2562,7 @@
         <v>89</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>59</v>
@@ -2616,7 +2616,7 @@
         <v>82</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>59</v>
